--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Reports_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Marcus L</author>
   </authors>
   <commentList>
-    <comment ref="A55" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0" shapeId="0">
+    <comment ref="A70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0" shapeId="0">
+    <comment ref="A71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0" shapeId="0">
+    <comment ref="A72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0" shapeId="0">
+    <comment ref="A73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0">
+    <comment ref="A74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0" shapeId="0">
+    <comment ref="A75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="0" shapeId="0">
+    <comment ref="A76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
+    <comment ref="A77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Work Experinece: job seeker can insert and delete entries</t>
   </si>
   <si>
-    <t>Work Experinece: The Job Title field is usedto determine if a job seeker satisfies the experience requirements for the job</t>
-  </si>
-  <si>
     <t>Skills: be able to select new skills</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>Update Resume: Allow seeker to update resume</t>
   </si>
   <si>
-    <t>idk how this is useful</t>
-  </si>
-  <si>
     <t>not complete</t>
   </si>
   <si>
@@ -466,13 +460,46 @@
   </si>
   <si>
     <t>Complete, but would like to add a little flexibility if company name not found</t>
+  </si>
+  <si>
+    <t>Define parameters for posting job (company, location salary,duration,etc)</t>
+  </si>
+  <si>
+    <t>allow a text description of the job</t>
+  </si>
+  <si>
+    <t>screens to take payment</t>
+  </si>
+  <si>
+    <t>for security a job poster cannot be a job seeker</t>
+  </si>
+  <si>
+    <t>each job poster associated with only one company</t>
+  </si>
+  <si>
+    <t>notify the system when a job has been filled</t>
+  </si>
+  <si>
+    <t>can view applications for their posted jobs</t>
+  </si>
+  <si>
+    <t>can view details about applicants for posted jobs</t>
+  </si>
+  <si>
+    <t>TODO:Confirm Done</t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>TODO: fill in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +570,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -582,7 +617,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,6 +655,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -903,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -938,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -946,15 +985,15 @@
         <v>19</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -965,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -976,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -987,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -998,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1009,15 +1048,15 @@
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,354 +1073,263 @@
       </c>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>1</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="B68" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B69" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>3</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>3</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>4</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B71" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>5</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>6</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>5</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>6</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>7</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="B74" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>8</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="B75" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>9</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="B76" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>10</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="B77" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -1389,109 +1337,135 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="94" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
@@ -1499,15 +1473,8 @@
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -1519,52 +1486,14 @@
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
+      <c r="A113" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Job Poster Pages</t>
   </si>
   <si>
-    <t>Complete, but would like to add a little flexibility if company name not found</t>
-  </si>
-  <si>
     <t>Define parameters for posting job (company, location salary,duration,etc)</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>TODO: fill in</t>
+  </si>
+  <si>
+    <t>add checks if time</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,66 +1131,66 @@
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,12 +1203,12 @@
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -1271,8 +1271,8 @@
       <c r="A70" s="4">
         <v>3</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>61</v>
+      <c r="B70" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,8 +1287,8 @@
       <c r="A72" s="4">
         <v>5</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>56</v>
+      <c r="B72" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,13 +1298,16 @@
       <c r="B73" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="C73" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>7</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>56</v>
+      <c r="B74" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">

--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>add checks if time</t>
+  </si>
+  <si>
+    <t>order by job fill status so that filled jobs get sent to the bottom, removed redundant information user can see by clicking on job details</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -944,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,8 +990,11 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>50</v>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -342,24 +342,12 @@
     <t>Note that we have expanded this to allow multiple resumes to be uploaded and modified by the user</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply to selected: add the selected jobs to the list of jobs which seeker has applied for. </t>
-  </si>
-  <si>
-    <t>We have extended this to include sending the resume of the seeker's choosing along with the application</t>
-  </si>
-  <si>
     <t>Comments/ additions</t>
   </si>
   <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t>Select all/clear all</t>
-  </si>
-  <si>
-    <t>It might not be a good idea to have seekers blindly apply to all job positions?</t>
-  </si>
-  <si>
     <t>Exit</t>
   </si>
   <si>
@@ -423,18 +411,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Not Fully Complete</t>
-  </si>
-  <si>
-    <t>Not Implemented</t>
-  </si>
-  <si>
-    <t>Do we need more search criteria?</t>
-  </si>
-  <si>
-    <t>Implemented for job search but not for main page</t>
-  </si>
-  <si>
     <t>All set</t>
   </si>
   <si>
@@ -499,13 +475,40 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>revamped with additional search options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading screen: Apply to selected: add the selected jobs to the list of jobs which seeker has applied for. </t>
+  </si>
+  <si>
+    <t>Loading Screen: Select all/clear all</t>
+  </si>
+  <si>
+    <t>check jobid 20</t>
+  </si>
+  <si>
+    <t>Because we are allowing resume customization per sumbmission, disallowing this feature</t>
+  </si>
+  <si>
+    <t>you can view each job and apply to each one individually from the screen.</t>
+  </si>
+  <si>
+    <t>Not Implementing</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +587,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +618,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -616,14 +632,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,9 +684,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -665,9 +694,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,13 +997,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -983,26 +1017,29 @@
         <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
+      <c r="B4" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1010,218 +1047,221 @@
     </row>
     <row r="6" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>70</v>
+      <c r="A35" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="1"/>
@@ -1233,17 +1273,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -1262,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1270,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1281,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1305,10 +1345,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1324,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1332,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1340,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1383,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -1394,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1402,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1410,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1473,10 +1513,10 @@
     </row>
     <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,12 +1539,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Reports_Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20256" windowHeight="7644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +27,7 @@
     <author>Marcus L</author>
   </authors>
   <commentList>
-    <comment ref="A68" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0" shapeId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0" shapeId="0">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0" shapeId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0" shapeId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0" shapeId="0">
+    <comment ref="A74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0" shapeId="0">
+    <comment ref="A75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0" shapeId="0">
+    <comment ref="A77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,12 +469,6 @@
     <t>add checks if time</t>
   </si>
   <si>
-    <t>order by job fill status so that filled jobs get sent to the bottom, removed redundant information user can see by clicking on job details</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -502,45 +494,66 @@
   </si>
   <si>
     <t>working</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">order by job fill status so that filled jobs get sent to the bottom, removed redundant information user can see by clicking on job details. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bug: One job in the main page was "application submitted", but it didn't show in the Manage Applications</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed, still under testing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -548,7 +561,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -575,7 +588,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,7 +596,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -591,8 +604,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -700,14 +728,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="计算" xfId="4" builtinId="22"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,7 +818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,7 +853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,28 +1030,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="64.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="43.9" customHeight="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1006,35 +1062,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
+      <c r="B4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1045,29 +1101,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="66.599999999999994" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27">
       <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1078,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1097,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1105,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1113,13 +1169,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1130,7 +1186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1149,36 +1205,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="54">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="27">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1186,7 +1242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1194,7 +1250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="27">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1202,7 +1258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="27">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1210,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="27">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1218,7 +1274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="27">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1226,7 +1282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="27">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1234,7 +1290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="27">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1242,62 +1298,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="28.5">
       <c r="A48" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="18.75">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="18.75">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -1305,7 +1361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -1316,7 +1372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -1324,7 +1380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="4">
         <v>4</v>
       </c>
@@ -1332,7 +1388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="4">
         <v>5</v>
       </c>
@@ -1340,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="4">
         <v>6</v>
       </c>
@@ -1351,7 +1407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="4">
         <v>7</v>
       </c>
@@ -1359,7 +1415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="4">
         <v>8</v>
       </c>
@@ -1367,7 +1423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="4">
         <v>9</v>
       </c>
@@ -1375,7 +1431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="4">
         <v>10</v>
       </c>
@@ -1383,26 +1439,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="35.450000000000003" customHeight="1">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="18.75">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="27">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="27">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="27">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -1461,21 +1517,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="18.75">
       <c r="A93" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="31.5">
       <c r="A94" s="6" t="s">
         <v>12</v>
       </c>
@@ -1483,27 +1539,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="27">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="67.5">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -1519,35 +1575,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="54">
       <c r="A114" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Reports_Documentation/Report Spreadsheet.xlsx
+++ b/Reports_Documentation/Report Spreadsheet.xlsx
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -514,6 +514,10 @@
   </si>
   <si>
     <t>Completed, still under testing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug report: Some strange session cache limited error appeared with no reason when adding variables</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,6 +730,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1030,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1040,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1441,6 +1446,9 @@
     </row>
     <row r="78" spans="1:3" ht="35.450000000000003" customHeight="1">
       <c r="A78" s="1"/>
+      <c r="C78" s="18" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1"/>
